--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>797.1107474056575</v>
+        <v>9.099653043129665</v>
       </c>
       <c r="R2">
-        <v>797.1107474056575</v>
+        <v>81.89687738816698</v>
       </c>
       <c r="S2">
-        <v>0.004504527183208361</v>
+        <v>3.692581436892329E-05</v>
       </c>
       <c r="T2">
-        <v>0.004504527183208361</v>
+        <v>3.735029159937485E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>1055.030981499301</v>
+        <v>1666.632941753211</v>
       </c>
       <c r="R3">
-        <v>1055.030981499301</v>
+        <v>14999.6964757789</v>
       </c>
       <c r="S3">
-        <v>0.005962052011917041</v>
+        <v>0.006763090673525877</v>
       </c>
       <c r="T3">
-        <v>0.005962052011917041</v>
+        <v>0.006840835147072466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>50.73089424342781</v>
+        <v>1552.276910153954</v>
       </c>
       <c r="R4">
-        <v>50.73089424342781</v>
+        <v>13970.49219138558</v>
       </c>
       <c r="S4">
-        <v>0.000286683742367977</v>
+        <v>0.006299041157045787</v>
       </c>
       <c r="T4">
-        <v>0.000286683742367977</v>
+        <v>0.006371451192966172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>63200.06515087056</v>
+        <v>76.24967958375699</v>
       </c>
       <c r="R5">
-        <v>63200.06515087056</v>
+        <v>457.4980775025419</v>
       </c>
       <c r="S5">
-        <v>0.357147877354809</v>
+        <v>0.0003094163591353061</v>
       </c>
       <c r="T5">
-        <v>0.357147877354809</v>
+        <v>0.0002086488172178135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H6">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J6">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>83649.63963158008</v>
+        <v>536.7674678598198</v>
       </c>
       <c r="R6">
-        <v>83649.63963158008</v>
+        <v>4830.907210738379</v>
       </c>
       <c r="S6">
-        <v>0.4727098170641998</v>
+        <v>0.002178168308563528</v>
       </c>
       <c r="T6">
-        <v>0.4727098170641998</v>
+        <v>0.002203207237748379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>4022.271474549442</v>
+        <v>98310.81907810341</v>
       </c>
       <c r="R7">
-        <v>4022.271474549442</v>
+        <v>884797.3717029307</v>
       </c>
       <c r="S7">
-        <v>0.02273013035430934</v>
+        <v>0.3989390626795044</v>
       </c>
       <c r="T7">
-        <v>0.02273013035430934</v>
+        <v>0.4035250292001955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>2587.464843931058</v>
+        <v>91565.22150146004</v>
       </c>
       <c r="R8">
-        <v>2587.464843931058</v>
+        <v>824086.9935131404</v>
       </c>
       <c r="S8">
-        <v>0.01462194025487393</v>
+        <v>0.3715658559493143</v>
       </c>
       <c r="T8">
-        <v>0.01462194025487393</v>
+        <v>0.3758371563433408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>3424.687953050855</v>
+        <v>4497.792085182542</v>
       </c>
       <c r="R9">
-        <v>3424.687953050855</v>
+        <v>26986.75251109525</v>
       </c>
       <c r="S9">
-        <v>0.01935314512912097</v>
+        <v>0.01825175474496345</v>
       </c>
       <c r="T9">
-        <v>0.01935314512912097</v>
+        <v>0.01230771071810372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H10">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I10">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J10">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>164.6752421583549</v>
+        <v>22.12167093604334</v>
       </c>
       <c r="R10">
-        <v>164.6752421583549</v>
+        <v>199.09503842439</v>
       </c>
       <c r="S10">
-        <v>0.0009305910215337092</v>
+        <v>8.976833629184138E-05</v>
       </c>
       <c r="T10">
-        <v>0.0009305910215337092</v>
+        <v>9.080025976929552E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H11">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I11">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J11">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>6577.034125232265</v>
+        <v>4051.66057803387</v>
       </c>
       <c r="R11">
-        <v>6577.034125232265</v>
+        <v>36464.94520230483</v>
       </c>
       <c r="S11">
-        <v>0.03716726828539495</v>
+        <v>0.01644138141105511</v>
       </c>
       <c r="T11">
-        <v>0.03716726828539495</v>
+        <v>0.01663038176664472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>8705.157709994943</v>
+        <v>3773.655857568124</v>
       </c>
       <c r="R12">
-        <v>8705.157709994943</v>
+        <v>33962.90271811312</v>
       </c>
       <c r="S12">
-        <v>0.04919343976531831</v>
+        <v>0.01531325590418722</v>
       </c>
       <c r="T12">
-        <v>0.04919343976531831</v>
+        <v>0.0154892879989831</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.0023178766533</v>
+        <v>3.084311</v>
       </c>
       <c r="N13">
-        <v>3.0023178766533</v>
+        <v>6.168622</v>
       </c>
       <c r="O13">
-        <v>0.02666016296954829</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P13">
-        <v>0.02666016296954829</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q13">
-        <v>418.5852765484939</v>
+        <v>185.36644339469</v>
       </c>
       <c r="R13">
-        <v>418.5852765484939</v>
+        <v>1112.19866036814</v>
       </c>
       <c r="S13">
-        <v>0.00236545393828935</v>
+        <v>0.0007522052595387416</v>
       </c>
       <c r="T13">
-        <v>0.00236545393828935</v>
+        <v>0.0005072347762942452</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H14">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I14">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J14">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N14">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O14">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P14">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q14">
-        <v>965.6622988798209</v>
+        <v>103.125226488339</v>
       </c>
       <c r="R14">
-        <v>965.6622988798209</v>
+        <v>928.127038395051</v>
       </c>
       <c r="S14">
-        <v>0.005457023492985157</v>
+        <v>0.0004184756223136051</v>
       </c>
       <c r="T14">
-        <v>0.005457023492985157</v>
+        <v>0.0004232861695204032</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H15">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I15">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J15">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N15">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O15">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P15">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q15">
-        <v>1278.120570196715</v>
+        <v>18887.74206847279</v>
       </c>
       <c r="R15">
-        <v>1278.120570196715</v>
+        <v>169989.6786162551</v>
       </c>
       <c r="S15">
-        <v>0.007222746488624259</v>
+        <v>0.07664525824917115</v>
       </c>
       <c r="T15">
-        <v>0.007222746488624259</v>
+        <v>0.07752632661570209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>280.168911</v>
+      </c>
+      <c r="H16">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J16">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>17591.75950704041</v>
+      </c>
+      <c r="R16">
+        <v>158325.8355633637</v>
+      </c>
+      <c r="S16">
+        <v>0.07138624328871124</v>
+      </c>
+      <c r="T16">
+        <v>0.0722068571427698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>280.168911</v>
+      </c>
+      <c r="H17">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J17">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>864.1280540553212</v>
+      </c>
+      <c r="R17">
+        <v>5184.768324331926</v>
+      </c>
+      <c r="S17">
+        <v>0.00350657678526733</v>
+      </c>
+      <c r="T17">
+        <v>0.002364590872874718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="H16">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="I16">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="J16">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q16">
-        <v>61.45809991745931</v>
-      </c>
-      <c r="R16">
-        <v>61.45809991745931</v>
-      </c>
-      <c r="S16">
-        <v>0.0003473039130479125</v>
-      </c>
-      <c r="T16">
-        <v>0.0003473039130479125</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20.472042</v>
+      </c>
+      <c r="H18">
+        <v>40.944084</v>
+      </c>
+      <c r="I18">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J18">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>7.535396987458001</v>
+      </c>
+      <c r="R18">
+        <v>45.212381924748</v>
+      </c>
+      <c r="S18">
+        <v>3.057816259984771E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.061978066376969E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>20.472042</v>
+      </c>
+      <c r="H19">
+        <v>40.944084</v>
+      </c>
+      <c r="I19">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J19">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>1380.134032469226</v>
+      </c>
+      <c r="R19">
+        <v>8280.804194815357</v>
+      </c>
+      <c r="S19">
+        <v>0.005600496287676537</v>
+      </c>
+      <c r="T19">
+        <v>0.003776584177779266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.472042</v>
+      </c>
+      <c r="H20">
+        <v>40.944084</v>
+      </c>
+      <c r="I20">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J20">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>1285.436125645042</v>
+      </c>
+      <c r="R20">
+        <v>7712.616753870253</v>
+      </c>
+      <c r="S20">
+        <v>0.00521621819356222</v>
+      </c>
+      <c r="T20">
+        <v>0.003517453826547237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.472042</v>
+      </c>
+      <c r="H21">
+        <v>40.944084</v>
+      </c>
+      <c r="I21">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J21">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>63.14214433306201</v>
+      </c>
+      <c r="R21">
+        <v>252.568577332248</v>
+      </c>
+      <c r="S21">
+        <v>0.0002562268132034741</v>
+      </c>
+      <c r="T21">
+        <v>0.0001151876642071061</v>
       </c>
     </row>
   </sheetData>
